--- a/Projects/复指数.xlsx
+++ b/Projects/复指数.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwin\Downloads\项目资料\Git Hud\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,13 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -53,12 +49,20 @@
     <t xml:space="preserve">σ&lt;0 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>EXP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,12 +77,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,15 +101,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -159,11 +154,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -177,17 +171,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.7374890638670163E-2"/>
-          <c:y val="0.17222222222222225"/>
-          <c:w val="0.8467362204724409"/>
-          <c:h val="0.77222222222222225"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -195,151 +179,102 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$19</c:f>
+              <c:f>Sheet1!$I$2:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>-1.8960170181147764</c:v>
+                  <c:v>1.0398835491237655E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.011204303208169</c:v>
+                  <c:v>0.1738409429550502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4309812820391237</c:v>
+                  <c:v>7.725819010266563E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.7698824892962008</c:v>
+                  <c:v>0.15246643459995698</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-606.82942409384316</c:v>
+                  <c:v>0.91935098045934593</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-687.04233063339484</c:v>
+                  <c:v>0.5439800148662759</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5568.1266500139418</c:v>
+                  <c:v>-0.20531400306211839</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12299.296780114197</c:v>
+                  <c:v>0.86039809943163426</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-45528.391149188617</c:v>
+                  <c:v>-0.19661960238514681</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-72852.692627325538</c:v>
+                  <c:v>-0.72929264095384105</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>482050.68986654741</c:v>
+                  <c:v>0.24516878309580181</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>323335.2142069682</c:v>
+                  <c:v>0.84601293482469175</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1710493.0989675198</c:v>
+                  <c:v>0.53248781125644384</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7802426.2695783414</c:v>
+                  <c:v>-0.62519872960237577</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16548330.35570005</c:v>
+                  <c:v>0.26049532603881864</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35491223.84790758</c:v>
+                  <c:v>-0.98146849445024953</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>272839275.15284222</c:v>
+                  <c:v>0.36798810782092206</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-195491914.08750817</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$H$2:$H$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>-3.3085700379396614E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17384075545287397</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.7258148611246344E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15246635319614441</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.91933752585488993</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5440192691263156</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.20574902874455531</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.85982357894792849</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.20122923941661811</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.73500185291847109</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.18549282550688578</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.82129069709551739</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.73017458921966161</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.55528608201414897</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.50536673463327209</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.99424091955514182</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.7052179893579329</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.56045844442672499</c:v>
+                  <c:v>0.57026776541102497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -354,11 +289,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-863115760"/>
-        <c:axId val="-863119024"/>
+        <c:axId val="1545471856"/>
+        <c:axId val="1545468592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-863115760"/>
+        <c:axId val="1545471856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -368,9 +303,65 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1545468592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1545468592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -386,9 +377,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -402,9 +392,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -415,69 +404,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-863119024"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-863119024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-863115760"/>
+        <c:crossAx val="1545471856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -495,11 +422,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -567,56 +497,46 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -624,16 +544,15 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -643,23 +562,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -667,63 +581,123 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:effectRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -747,21 +721,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -771,20 +742,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -796,14 +766,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -815,14 +784,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -834,14 +802,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -853,9 +815,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -872,9 +835,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -886,14 +850,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="lt1">
             <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -905,14 +868,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -924,27 +886,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -952,9 +913,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -964,14 +924,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -983,12 +942,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -997,14 +955,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="25400" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1013,9 +972,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1025,17 +983,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1047,37 +1006,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1086,13 +1038,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1152,19 +1104,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>425822</xdr:colOff>
+      <xdr:colOff>605118</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>158002</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>212911</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>53788</xdr:rowOff>
+      <xdr:colOff>392207</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>43702</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="28" name="图表 27"/>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1445,19 +1397,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1468,59 +1420,68 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>2.71828</v>
+      <c r="B2">
+        <v>0.1</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>0.8</v>
+        <f>EXP($B:$B*$C:$C)</f>
+        <v>2.7182818284590451</v>
       </c>
       <c r="E2">
         <v>30</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <f>$A:$A*POWER($B:$B,$C:$C*$D:$D)*SIN($E:$E*$F:$F)</f>
-        <v>-1.8960170181147764</v>
+        <f>SIN($E:$E*$F:$F)</f>
+        <v>0.21918997428281811</v>
       </c>
       <c r="H2">
-        <f>SIN($G:$G*PI()/180)</f>
-        <v>-3.3085700379396614E-2</v>
+        <f>$A:$A*$D:$D*$G:$G</f>
+        <v>0.59582012407338991</v>
+      </c>
+      <c r="I2">
+        <f>SIN($H:$H*PI()/180)</f>
+        <v>1.0398835491237655E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>2.71828</v>
+      <c r="B3">
+        <v>1.8</v>
       </c>
       <c r="C3">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="D3">
-        <v>0.9</v>
+        <f t="shared" ref="D3:D19" si="0">EXP($B:$B*$C:$C)</f>
+        <v>5.0530903165638676</v>
       </c>
       <c r="E3">
         <v>31</v>
@@ -1529,26 +1490,31 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G19" si="0">$A:$A*POWER($B:$B,$C:$C*$D:$D)*SIN($E:$E*$F:$F)</f>
-        <v>10.011204303208169</v>
+        <f t="shared" ref="G3:G19" si="1">SIN($E:$E*$F:$F)</f>
+        <v>0.99060323338977374</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H19" si="1">SIN($G:$G*PI()/180)</f>
-        <v>0.17384075545287397</v>
+        <f t="shared" ref="H3:H19" si="2">$A:$A*$D:$D*$G:$G</f>
+        <v>10.011215212397445</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I19" si="3">SIN($H:$H*PI()/180)</f>
+        <v>0.1738409429550502</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>2.71828</v>
+      <c r="B4">
+        <v>0.8</v>
       </c>
       <c r="C4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2.2255409284924679</v>
       </c>
       <c r="E4">
         <v>32</v>
@@ -1557,26 +1523,31 @@
         <v>12</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>4.4309812820391237</v>
+        <f t="shared" si="1"/>
+        <v>0.66365643362195958</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
-        <v>7.7258148611246344E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.4309836664490474</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>7.725819010266563E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>2.71828</v>
+      <c r="B5">
+        <v>0.8</v>
       </c>
       <c r="C5">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2.2255409284924679</v>
       </c>
       <c r="E5">
         <v>33</v>
@@ -1585,26 +1556,31 @@
         <v>13</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>8.7698824892962008</v>
+        <f t="shared" si="1"/>
+        <v>0.98514108371242493</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
-        <v>0.15246635319614441</v>
+        <f t="shared" si="2"/>
+        <v>8.769887208565704</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0.15246643459995698</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>2.71828</v>
+      <c r="B6">
+        <v>4.8</v>
       </c>
       <c r="C6">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>121.51041751873485</v>
       </c>
       <c r="E6">
         <v>34</v>
@@ -1613,26 +1589,31 @@
         <v>14</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>-606.82942409384316</v>
+        <f t="shared" si="1"/>
+        <v>-0.99881375733674538</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
-        <v>0.91933752585488993</v>
+        <f t="shared" si="2"/>
+        <v>-606.83138338722131</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0.91935098045934593</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>2.71828</v>
+      <c r="B7">
+        <v>5.8</v>
       </c>
       <c r="C7">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>330.29955990964862</v>
       </c>
       <c r="E7">
         <v>35</v>
@@ -1641,26 +1622,31 @@
         <v>15</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>-687.04233063339484</v>
+        <f t="shared" si="1"/>
+        <v>-0.34667773058479046</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
-        <v>0.5440192691263156</v>
+        <f t="shared" si="2"/>
+        <v>-687.04501105579209</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0.5439800148662759</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>2.71828</v>
+      <c r="B8">
+        <v>6.8</v>
       </c>
       <c r="C8">
-        <v>6.8</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>897.84729165041756</v>
       </c>
       <c r="E8">
         <v>36</v>
@@ -1669,26 +1655,31 @@
         <v>16</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>-5568.1266500139418</v>
+        <f t="shared" si="1"/>
+        <v>-0.88595277849252974</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
-        <v>-0.20574902874455531</v>
+        <f t="shared" si="2"/>
+        <v>-5568.1521188977604</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>-0.20531400306211839</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>2.71828</v>
+      <c r="B9">
+        <v>7.8</v>
       </c>
       <c r="C9">
-        <v>7.8</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2440.6019776244984</v>
       </c>
       <c r="E9">
         <v>37</v>
@@ -1697,26 +1688,31 @@
         <v>17</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>12299.296780114197</v>
+        <f t="shared" si="1"/>
+        <v>0.62993481852307964</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
-        <v>0.85982357894792849</v>
+        <f t="shared" si="2"/>
+        <v>12299.361310895662</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0.86039809943163426</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>2.71828</v>
+      <c r="B10">
+        <v>8.8000000000000007</v>
       </c>
       <c r="C10">
-        <v>8.8000000000000007</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>6634.2440062778896</v>
       </c>
       <c r="E10">
         <v>38</v>
@@ -1725,26 +1721,31 @@
         <v>18</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>-45528.391149188617</v>
+        <f t="shared" si="1"/>
+        <v>-0.76251944716447939</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
-        <v>-0.20122923941661811</v>
+        <f t="shared" si="2"/>
+        <v>-45528.660648191501</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>-0.19661960238514681</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>2.71828</v>
+      <c r="B11">
+        <v>9.8000000000000007</v>
       </c>
       <c r="C11">
-        <v>9.8000000000000007</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>18033.744927828524</v>
       </c>
       <c r="E11">
         <v>39</v>
@@ -1753,26 +1754,31 @@
         <v>19</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>-72852.692627325538</v>
+        <f t="shared" si="1"/>
+        <v>-0.40398249595507346</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
-        <v>-0.73500185291847109</v>
+        <f t="shared" si="2"/>
+        <v>-72853.172873613134</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>-0.72929264095384105</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
-        <v>2.71828</v>
+      <c r="B12">
+        <v>10.8</v>
       </c>
       <c r="C12">
-        <v>10.8</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>49020.80113638175</v>
       </c>
       <c r="E12">
         <v>40</v>
@@ -1781,26 +1787,31 @@
         <v>20</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>482050.68986654741</v>
+        <f t="shared" si="1"/>
+        <v>0.8939696481970214</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
-        <v>0.18549282550688578</v>
+        <f t="shared" si="2"/>
+        <v>482054.19180850079</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0.24516878309580181</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
-        <v>2.71828</v>
+      <c r="B13">
+        <v>11.8</v>
       </c>
       <c r="C13">
-        <v>11.8</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>133252.35294553102</v>
       </c>
       <c r="E13">
         <v>41</v>
@@ -1809,26 +1820,31 @@
         <v>21</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>323335.2142069682</v>
+        <f t="shared" si="1"/>
+        <v>0.20220892507028165</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
-        <v>0.82129069709551739</v>
+        <f t="shared" si="2"/>
+        <v>323337.78062641929</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0.84601293482469175</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
-        <v>2.71828</v>
+      <c r="B14">
+        <v>12.8</v>
       </c>
       <c r="C14">
-        <v>12.8</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>362217.44961124816</v>
       </c>
       <c r="E14">
         <v>42</v>
@@ -1837,26 +1853,31 @@
         <v>22</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>1710493.0989675198</v>
+        <f t="shared" si="1"/>
+        <v>0.36325562239244008</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
-        <v>0.73017458921966161</v>
+        <f t="shared" si="2"/>
+        <v>1710507.8262991712</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0.53248781125644384</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
-        <v>2.71828</v>
+      <c r="B15">
+        <v>13.8</v>
       </c>
       <c r="C15">
-        <v>13.8</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>984609.11122903565</v>
       </c>
       <c r="E15">
         <v>43</v>
@@ -1865,26 +1886,31 @@
         <v>23</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>7802426.2695783414</v>
+        <f t="shared" si="1"/>
+        <v>0.56603308777862671</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
-        <v>0.55528608201414897</v>
+        <f t="shared" si="2"/>
+        <v>7802498.6967751645</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>-0.62519872960237577</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
-        <v>2.71828</v>
+      <c r="B16">
+        <v>14.8</v>
       </c>
       <c r="C16">
-        <v>14.8</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2676445.0551890987</v>
       </c>
       <c r="E16">
         <v>44</v>
@@ -1893,26 +1919,31 @@
         <v>24</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>16548330.35570005</v>
+        <f t="shared" si="1"/>
+        <v>0.41220087985418807</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
-        <v>-0.50536673463327209</v>
+        <f t="shared" si="2"/>
+        <v>16548495.099455062</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0.26049532603881864</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
-        <v>2.71828</v>
+      <c r="B17">
+        <v>15.8</v>
       </c>
       <c r="C17">
-        <v>15.8</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>7275331.9583895933</v>
       </c>
       <c r="E17">
         <v>45</v>
@@ -1921,26 +1952,31 @@
         <v>25</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>35491223.84790758</v>
+        <f t="shared" si="1"/>
+        <v>0.30489674947599804</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
-        <v>-0.99424091955514182</v>
+        <f t="shared" si="2"/>
+        <v>35491601.047549345</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>-0.98146849445024953</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
-        <v>2.71828</v>
+      <c r="B18">
+        <v>16.8</v>
       </c>
       <c r="C18">
-        <v>16.8</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>19776402.658497788</v>
       </c>
       <c r="E18">
         <v>46</v>
@@ -1949,26 +1985,31 @@
         <v>26</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>272839275.15284222</v>
+        <f t="shared" si="1"/>
+        <v>0.8115505520270061</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
-        <v>-0.7052179893579329</v>
+        <f t="shared" si="2"/>
+        <v>272842358.40840793</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0.36798810782092206</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
-        <v>2.71828</v>
+      <c r="B19">
+        <v>17.8</v>
       </c>
       <c r="C19">
-        <v>17.8</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>53757835.978883691</v>
       </c>
       <c r="E19">
         <v>47</v>
@@ -1977,17 +2018,22 @@
         <v>27</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
-        <v>-195491914.08750817</v>
+        <f t="shared" si="1"/>
+        <v>-0.20203179190233253</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
-        <v>-0.56045844442672499</v>
+        <f t="shared" si="2"/>
+        <v>-195494254.76889998</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0.57026776541102497</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Projects/复指数.xlsx
+++ b/Projects/复指数.xlsx
@@ -184,14 +184,7 @@
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -206,14 +199,7 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:yVal>
@@ -289,11 +275,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1545471856"/>
-        <c:axId val="1545468592"/>
+        <c:axId val="882610704"/>
+        <c:axId val="882610160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1545471856"/>
+        <c:axId val="882610704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -319,8 +305,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -343,12 +330,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1545468592"/>
+        <c:crossAx val="882610160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1545468592"/>
+        <c:axId val="882610160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -404,7 +391,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1545471856"/>
+        <c:crossAx val="882610704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1104,15 +1091,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>605118</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>158002</xdr:rowOff>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>392207</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>43702</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>515469</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1400,7 +1387,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
